--- a/arquivos-diagramas/Lista_de_tarefas_VinDiesel.xlsx
+++ b/arquivos-diagramas/Lista_de_tarefas_VinDiesel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agostinho.junior\Documents\GitHub\Vin-Diesel\arquivos-diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407B6354-3189-44AE-AECC-BB4B98C4C611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,20 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
   <si>
     <t>Descrição</t>
   </si>
   <si>
-    <t>Custo/Hora</t>
-  </si>
-  <si>
     <t>Responsavel</t>
   </si>
   <si>
-    <t>Preço</t>
-  </si>
-  <si>
     <t>William</t>
   </si>
   <si>
@@ -149,18 +142,12 @@
     <t>Total Horas</t>
   </si>
   <si>
-    <t>Valor Total</t>
-  </si>
-  <si>
     <t>O Custo de 60 R$ / Hora ja contem transporte, alimentação viagens e custos adicionais inclusos</t>
   </si>
   <si>
     <t>Entrada de 30%</t>
   </si>
   <si>
-    <t>Valor Restante (Negociado)</t>
-  </si>
-  <si>
     <t>Tela de Gerenciar Receita</t>
   </si>
   <si>
@@ -173,54 +160,12 @@
     <t>RF-6</t>
   </si>
   <si>
-    <t>RF-6.1</t>
-  </si>
-  <si>
-    <t>RF-6.2</t>
-  </si>
-  <si>
-    <t>RF-6.3</t>
-  </si>
-  <si>
-    <t>RF-6.5</t>
-  </si>
-  <si>
-    <t>RF-6.9</t>
-  </si>
-  <si>
-    <t>RF-6.10</t>
-  </si>
-  <si>
     <t>Tela de gerenciamento de tipo de usuário contendo todos os atributos de tipo de usuário</t>
   </si>
   <si>
     <t>RF-8</t>
   </si>
   <si>
-    <t>RF-10</t>
-  </si>
-  <si>
-    <t>RF-11</t>
-  </si>
-  <si>
-    <t>RF-12</t>
-  </si>
-  <si>
-    <t>RF-13</t>
-  </si>
-  <si>
-    <t>RF-14</t>
-  </si>
-  <si>
-    <t>RF-10.1</t>
-  </si>
-  <si>
-    <t>RF-10.2</t>
-  </si>
-  <si>
-    <t>RF-10.3</t>
-  </si>
-  <si>
     <t>Criar diagrama de classes de conexão com o banco</t>
   </si>
   <si>
@@ -230,15 +175,9 @@
     <t>Criar diagrama de modelos de entidades</t>
   </si>
   <si>
-    <t>RF-10.4</t>
-  </si>
-  <si>
     <t>Criar diagrama de Controle das classes</t>
   </si>
   <si>
-    <t>RF-10.5</t>
-  </si>
-  <si>
     <t>Diagrama de Classe - Conexão</t>
   </si>
   <si>
@@ -254,9 +193,6 @@
     <t>Criar diagrama de Telas do Usuário</t>
   </si>
   <si>
-    <t>RF-10.6</t>
-  </si>
-  <si>
     <t>Diagrama de Uteis</t>
   </si>
   <si>
@@ -293,39 +229,9 @@
     <t>Ajustar Tela de Gerenciar Tipo de Usuário</t>
   </si>
   <si>
-    <t>RF-13.1</t>
-  </si>
-  <si>
-    <t>RF-13.2</t>
-  </si>
-  <si>
-    <t>RF-13.3</t>
-  </si>
-  <si>
-    <t>RF-13.4</t>
-  </si>
-  <si>
-    <t>RF-13.5</t>
-  </si>
-  <si>
-    <t>RF-13.6</t>
-  </si>
-  <si>
-    <t>RF-13.7</t>
-  </si>
-  <si>
-    <t>RF-13.8</t>
-  </si>
-  <si>
-    <t>RF-13.9</t>
-  </si>
-  <si>
     <t>Ajustar prototipo de tela baseado nos requisitos e ajustes pedidos do cliente</t>
   </si>
   <si>
-    <t>RF-22</t>
-  </si>
-  <si>
     <t>Manual de Uso</t>
   </si>
   <si>
@@ -335,15 +241,6 @@
     <t>Prioridade</t>
   </si>
   <si>
-    <t>RNF-9</t>
-  </si>
-  <si>
-    <t>RNF-20</t>
-  </si>
-  <si>
-    <t>RNF-21</t>
-  </si>
-  <si>
     <t>Dias uteis</t>
   </si>
   <si>
@@ -353,15 +250,6 @@
     <t>RNF-16</t>
   </si>
   <si>
-    <t>RNF-17</t>
-  </si>
-  <si>
-    <t>RNF-18</t>
-  </si>
-  <si>
-    <t>RNF-19</t>
-  </si>
-  <si>
     <t>NUMERO DO REQUISITO</t>
   </si>
   <si>
@@ -432,12 +320,132 @@
   </si>
   <si>
     <t>Criar diagrama de modelos de entidades nativas</t>
+  </si>
+  <si>
+    <t>RF-1</t>
+  </si>
+  <si>
+    <t>RF-2</t>
+  </si>
+  <si>
+    <t>RF-2.1</t>
+  </si>
+  <si>
+    <t>RF-2.2</t>
+  </si>
+  <si>
+    <t>RF-2.3</t>
+  </si>
+  <si>
+    <t>RF-2.4</t>
+  </si>
+  <si>
+    <t>RF-2.5</t>
+  </si>
+  <si>
+    <t>RF-2.6</t>
+  </si>
+  <si>
+    <t>RF-2.7</t>
+  </si>
+  <si>
+    <t>RF-3</t>
+  </si>
+  <si>
+    <t>RNF-4</t>
+  </si>
+  <si>
+    <t>RF-5.1</t>
+  </si>
+  <si>
+    <t>RF-5.2</t>
+  </si>
+  <si>
+    <t>RF-5.3</t>
+  </si>
+  <si>
+    <t>RF-5.4</t>
+  </si>
+  <si>
+    <t>RF-5.5</t>
+  </si>
+  <si>
+    <t>RF-5.6</t>
+  </si>
+  <si>
+    <t>RF-5.7</t>
+  </si>
+  <si>
+    <t>RF-5.8</t>
+  </si>
+  <si>
+    <t>RF-5.9</t>
+  </si>
+  <si>
+    <t>RF-5.10</t>
+  </si>
+  <si>
+    <t>RF-5.11</t>
+  </si>
+  <si>
+    <t>RF-5.12</t>
+  </si>
+  <si>
+    <t>RF-7</t>
+  </si>
+  <si>
+    <t>RF-8.1</t>
+  </si>
+  <si>
+    <t>RF-8.2</t>
+  </si>
+  <si>
+    <t>RF-8.3</t>
+  </si>
+  <si>
+    <t>RF-8.4</t>
+  </si>
+  <si>
+    <t>RF-8.5</t>
+  </si>
+  <si>
+    <t>RF-8.6</t>
+  </si>
+  <si>
+    <t>RF-8.7</t>
+  </si>
+  <si>
+    <t>RF-8.8</t>
+  </si>
+  <si>
+    <t>RF-8.9</t>
+  </si>
+  <si>
+    <t>RF-9</t>
+  </si>
+  <si>
+    <t>RNF-10</t>
+  </si>
+  <si>
+    <t>RNF-11</t>
+  </si>
+  <si>
+    <t>RNF-12</t>
+  </si>
+  <si>
+    <t>RNF-13</t>
+  </si>
+  <si>
+    <t>RNF-14</t>
+  </si>
+  <si>
+    <t>RF-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
@@ -481,7 +489,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -523,30 +531,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -556,11 +540,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,40 +580,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -898,1107 +880,915 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="136" style="7" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="26.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="12">
-        <v>60</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14">
-        <f>D2*E2</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(D4:D10)</f>
         <v>11</v>
       </c>
-      <c r="E3" s="12">
-        <v>60</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="14">
-        <f>D3*E3</f>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
-        <v>60</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="14">
-        <f>D11*E11</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12">
-        <v>60</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="14">
-        <f>D12*E12</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D14:D25)</f>
         <v>24</v>
       </c>
-      <c r="E13" s="12">
-        <v>60</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="14">
-        <f>D13*E13</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="18">
+      <c r="E14" s="13">
         <v>0</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="18">
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="18">
+      <c r="E19" s="13">
         <v>0</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="18">
+      <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="18">
+      <c r="E21" s="13">
         <v>0</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="18">
+      <c r="E22" s="13">
         <v>0</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="18">
+      <c r="E23" s="13">
         <v>0</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="18">
+      <c r="E24" s="13">
         <v>0</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="18">
+      <c r="E25" s="13">
         <v>0</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="12">
-        <v>60</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16" t="s">
+      <c r="C27" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H26" s="14">
-        <f>D26*E26</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D27" s="2">
         <v>8</v>
       </c>
-      <c r="E27" s="12">
-        <v>60</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="E27" s="13">
         <v>0</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="H27" s="14">
-        <f>D27*E27</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D28" s="2">
         <f>SUM(D29:D37)</f>
         <v>9</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="14">
-        <f>D28*E28</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="18">
-        <v>2</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="18">
-        <v>2</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="18">
-        <v>2</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="18">
-        <v>2</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="18">
-        <v>2</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="18">
-        <v>2</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="18">
-        <v>2</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="18">
-        <v>2</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="18">
-        <v>2</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="13">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11">
-        <v>2</v>
-      </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="14">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2">
         <v>8</v>
       </c>
-      <c r="E39" s="12">
-        <v>60</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="14">
-        <f t="shared" ref="H39:H45" si="0">D39*E39</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="13">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
       </c>
-      <c r="E40" s="12">
-        <v>60</v>
-      </c>
-      <c r="F40" s="18">
-        <v>2</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="14">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="13">
+        <v>2</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
       </c>
-      <c r="E41" s="12">
-        <v>60</v>
-      </c>
-      <c r="F41" s="18">
-        <v>2</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="14">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="13">
+        <v>2</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="13">
+        <v>2</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="12">
-        <v>60</v>
-      </c>
-      <c r="F42" s="18">
-        <v>2</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="14">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
       </c>
-      <c r="E43" s="12">
-        <v>60</v>
-      </c>
-      <c r="F43" s="18">
-        <v>2</v>
-      </c>
-      <c r="G43" s="16" t="s">
+      <c r="E43" s="13">
+        <v>2</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H43" s="14">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>8</v>
       </c>
-      <c r="E44" s="12">
-        <v>60</v>
-      </c>
-      <c r="F44" s="18">
-        <v>2</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="14">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="13">
+        <v>2</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2">
         <v>8</v>
       </c>
-      <c r="E45" s="12">
-        <v>60</v>
-      </c>
-      <c r="F45" s="18">
+      <c r="E45" s="13">
         <v>3</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="14">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>8</v>
       </c>
-      <c r="E46" s="12">
-        <v>60</v>
-      </c>
-      <c r="F46" s="18">
+      <c r="E46" s="13">
         <v>3</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="14">
-        <f>D46*E46</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
       <c r="D47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="E47" s="14"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="19" t="e">
+      <c r="D48" s="12" t="e">
         <f>SUM(#REF!+#REF!+#REF!+D2+D3+#REF!+D11+D12+D13+D26+D27+D28+D39+D40+D41+D42+D43+D44+D45+D46+#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="15" t="e">
-        <f>SUM(#REF!+#REF!+#REF!+#REF!+H2+H3+#REF!+H11+H12+H13+H26+H27+H28+H39+H40+H42+H41+H43+H44+H46+H45)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="3:8" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="C50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="11" t="e">
+      <c r="E48" s="14"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="3:6" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="C50" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="9" t="e">
         <f>D48/8</f>
         <v>#REF!</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G51" s="8" t="e">
-        <f>H48*30%</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H51" s="8" t="e">
-        <f>H48-G51</f>
+      <c r="F50" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="10" t="e">
+        <f>#REF!*30%</f>
         <v>#REF!</v>
       </c>
     </row>
